--- a/Projects/Federal Reserve Data/Disaggregated C-A  Diff-in-DiffDAGOLS 2008-10-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/Disaggregated C-A  Diff-in-DiffDAGOLS 2008-10-31 to 2020-02-29.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
-    <t>FFR Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>C/A Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>U Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>$\pi$ Diff-in-Diff</t>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>C/A</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>$\pi$</t>
   </si>
   <si>
     <t>Constant</t>
@@ -34,52 +34,52 @@
     <t>r2_adj</t>
   </si>
   <si>
-    <t>0.055***</t>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t>0.102</t>
-  </si>
-  <si>
-    <t>-0.004</t>
-  </si>
-  <si>
-    <t>11.776***</t>
-  </si>
-  <si>
-    <t>-1.961***</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.179</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>-0.048***</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.166</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>-0.103</t>
-  </si>
-  <si>
-    <t>-0.094</t>
+    <t>0.041***</t>
+  </si>
+  <si>
+    <t>0.213**</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.198**</t>
+  </si>
+  <si>
+    <t>7.428***</t>
+  </si>
+  <si>
+    <t>-6.307***</t>
+  </si>
+  <si>
+    <t>5.045***</t>
+  </si>
+  <si>
+    <t>-1.359</t>
+  </si>
+  <si>
+    <t>0.323**</t>
+  </si>
+  <si>
+    <t>-0.053***</t>
+  </si>
+  <si>
+    <t>-0.148</t>
+  </si>
+  <si>
+    <t>-0.125</t>
+  </si>
+  <si>
+    <t>0.069</t>
+  </si>
+  <si>
+    <t>0.024***</t>
+  </si>
+  <si>
+    <t>-0.084</t>
+  </si>
+  <si>
+    <t>-0.057</t>
   </si>
 </sst>
 </file>
@@ -535,16 +535,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.41</v>
       </c>
       <c r="C7">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D7">
-        <v>0.19</v>
+        <v>0.47</v>
       </c>
       <c r="E7">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
